--- a/data/trans_orig/P21D_1_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Clase-trans_orig.xlsx
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3900</v>
+        <v>3566</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001813496504847828</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01007095143806669</v>
+        <v>0.009209472895739434</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1285,16 +1285,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3563</v>
+        <v>4181</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0007811156801354521</v>
+        <v>0.000781115680135452</v>
       </c>
       <c r="V13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.003963266080479198</v>
+        <v>0.004650777125526332</v>
       </c>
     </row>
     <row r="14">
@@ -1324,7 +1324,7 @@
         <v>386560</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>383362</v>
+        <v>383696</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>387262</v>
@@ -1333,7 +1333,7 @@
         <v>0.9981865034951523</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9899290485619326</v>
+        <v>0.9907905271042605</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1345,16 +1345,16 @@
         <v>898395</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>895534</v>
+        <v>894916</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>899097</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9992188843198646</v>
+        <v>0.9992188843198645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9960367339195211</v>
+        <v>0.9953492228744736</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4401</v>
+        <v>4081</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00192381065126285</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01130901065600092</v>
+        <v>0.01048760669663265</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1486,16 +1486,16 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3823</v>
+        <v>4546</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.001142671624662223</v>
+        <v>0.001142671624662222</v>
       </c>
       <c r="V16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005835913807920845</v>
+        <v>0.006939609523780811</v>
       </c>
     </row>
     <row r="17">
@@ -1525,7 +1525,7 @@
         <v>388374</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>384722</v>
+        <v>385042</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>389123</v>
@@ -1534,7 +1534,7 @@
         <v>0.9980761893487372</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.988690989343999</v>
+        <v>0.9895123933033682</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1546,16 +1546,16 @@
         <v>654381</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>651307</v>
+        <v>650584</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>655130</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.998857328375338</v>
+        <v>0.9988573283753378</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9941640861920792</v>
+        <v>0.9930603904762193</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1835,16 +1835,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4423</v>
+        <v>4630</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.0008795050202013229</v>
+        <v>0.0008795050202013228</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.002681173925636871</v>
+        <v>0.002806867086328835</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5091</v>
+        <v>5042</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0004569570299805151</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.00160343183265414</v>
+        <v>0.00158811450918059</v>
       </c>
     </row>
     <row r="23">
@@ -1895,16 +1895,16 @@
         <v>1648224</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1645252</v>
+        <v>1645045</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>1649675</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9991204949797988</v>
+        <v>0.9991204949797987</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9973188260743631</v>
+        <v>0.9971931329136705</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -1916,7 +1916,7 @@
         <v>3173678</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3170038</v>
+        <v>3170087</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>3175129</v>
@@ -1925,7 +1925,7 @@
         <v>0.9995430429700195</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9983965681673458</v>
+        <v>0.9984118854908192</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
